--- a/state_federal/state_federal_2005_2006.xlsx
+++ b/state_federal/state_federal_2005_2006.xlsx
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.157</v>
+        <v>0.113</v>
       </c>
       <c r="C2">
-        <v>4.272</v>
+        <v>2.866</v>
       </c>
       <c r="D2">
-        <v>0.747</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -588,13 +588,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.228</v>
+        <v>0.165</v>
       </c>
       <c r="C3">
-        <v>10.681</v>
+        <v>5.53</v>
       </c>
       <c r="D3">
-        <v>0.84</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -602,13 +602,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.141</v>
+        <v>0.098</v>
       </c>
       <c r="C4">
-        <v>3.709</v>
+        <v>2.526</v>
       </c>
       <c r="D4">
-        <v>0.77</v>
+        <v>0.808</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -616,13 +616,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.172</v>
+        <v>0.125</v>
       </c>
       <c r="C5">
-        <v>5.145</v>
+        <v>3.341</v>
       </c>
       <c r="D5">
-        <v>0.767</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -630,13 +630,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.178</v>
+        <v>0.121</v>
       </c>
       <c r="C6">
-        <v>5.591</v>
+        <v>3.306</v>
       </c>
       <c r="D6">
-        <v>0.772</v>
+        <v>0.809</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -644,13 +644,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.145</v>
+        <v>0.101</v>
       </c>
       <c r="C7">
-        <v>3.78</v>
+        <v>2.508</v>
       </c>
       <c r="D7">
-        <v>0.755</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -658,13 +658,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.179</v>
+        <v>0.141</v>
       </c>
       <c r="C8">
-        <v>5.431</v>
+        <v>3.976</v>
       </c>
       <c r="D8">
-        <v>0.739</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.151</v>
       </c>
       <c r="C9">
-        <v>7.176</v>
+        <v>4.471</v>
       </c>
       <c r="D9">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.218</v>
+        <v>0.176</v>
       </c>
       <c r="C10">
-        <v>8.144</v>
+        <v>5.822</v>
       </c>
       <c r="D10">
-        <v>0.718</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.057</v>
       </c>
       <c r="C11">
-        <v>2.308</v>
+        <v>1.556</v>
       </c>
       <c r="D11">
-        <v>0.754</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.163</v>
+        <v>0.135</v>
       </c>
       <c r="C12">
-        <v>4.542</v>
+        <v>3.717</v>
       </c>
       <c r="D12">
-        <v>0.752</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -728,13 +728,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.182</v>
+        <v>0.138</v>
       </c>
       <c r="C13">
-        <v>5.752</v>
+        <v>3.945</v>
       </c>
       <c r="D13">
-        <v>0.768</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -742,13 +742,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.209</v>
+        <v>0.149</v>
       </c>
       <c r="C14">
-        <v>7.794</v>
+        <v>4.557</v>
       </c>
       <c r="D14">
-        <v>0.771</v>
+        <v>0.813</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -756,13 +756,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.137</v>
+        <v>0.117</v>
       </c>
       <c r="C15">
-        <v>3.307</v>
+        <v>2.913</v>
       </c>
       <c r="D15">
-        <v>0.723</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -770,13 +770,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.166</v>
+        <v>0.126</v>
       </c>
       <c r="C16">
-        <v>4.526</v>
+        <v>3.3</v>
       </c>
       <c r="D16">
-        <v>0.727</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -784,13 +784,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.182</v>
+        <v>0.141</v>
       </c>
       <c r="C17">
-        <v>5.646</v>
+        <v>3.944</v>
       </c>
       <c r="D17">
-        <v>0.759</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.141</v>
+        <v>0.106</v>
       </c>
       <c r="C18">
-        <v>3.557</v>
+        <v>2.622</v>
       </c>
       <c r="D18">
-        <v>0.744</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -812,13 +812,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.183</v>
+        <v>0.143</v>
       </c>
       <c r="C19">
-        <v>5.638</v>
+        <v>4.069</v>
       </c>
       <c r="D19">
-        <v>0.748</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -826,13 +826,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.165</v>
+        <v>0.115</v>
       </c>
       <c r="C20">
-        <v>4.895</v>
+        <v>2.951</v>
       </c>
       <c r="D20">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -840,13 +840,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.174</v>
+        <v>0.125</v>
       </c>
       <c r="C21">
-        <v>5.146</v>
+        <v>3.28</v>
       </c>
       <c r="D21">
-        <v>0.755</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -854,13 +854,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.16</v>
+        <v>0.126</v>
       </c>
       <c r="C22">
-        <v>4.317</v>
+        <v>3.427</v>
       </c>
       <c r="D22">
-        <v>0.739</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -868,13 +868,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.189</v>
+        <v>0.17</v>
       </c>
       <c r="C23">
-        <v>6.292</v>
+        <v>5.74</v>
       </c>
       <c r="D23">
-        <v>0.766</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -882,13 +882,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.157</v>
+        <v>0.12</v>
       </c>
       <c r="C24">
-        <v>4.255</v>
+        <v>3.154</v>
       </c>
       <c r="D24">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -896,13 +896,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.145</v>
+        <v>0.119</v>
       </c>
       <c r="C25">
-        <v>3.71</v>
+        <v>3.07</v>
       </c>
       <c r="D25">
-        <v>0.748</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -910,13 +910,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.162</v>
+        <v>0.106</v>
       </c>
       <c r="C26">
-        <v>4.592</v>
+        <v>2.749</v>
       </c>
       <c r="D26">
-        <v>0.762</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -924,13 +924,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.168</v>
+        <v>0.125</v>
       </c>
       <c r="C27">
-        <v>4.813</v>
+        <v>3.374</v>
       </c>
       <c r="D27">
-        <v>0.749</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -938,13 +938,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.133</v>
+        <v>0.094</v>
       </c>
       <c r="C28">
-        <v>3.277</v>
+        <v>2.362</v>
       </c>
       <c r="D28">
-        <v>0.753</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -952,13 +952,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="C29">
-        <v>4.362</v>
+        <v>3.328</v>
       </c>
       <c r="D29">
-        <v>0.75</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -966,13 +966,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.087</v>
+        <v>0.055</v>
       </c>
       <c r="C30">
-        <v>2.016</v>
+        <v>1.524</v>
       </c>
       <c r="D30">
-        <v>0.759</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -980,13 +980,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.113</v>
+        <v>0.091</v>
       </c>
       <c r="C31">
-        <v>2.719</v>
+        <v>2.302</v>
       </c>
       <c r="D31">
-        <v>0.775</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.163</v>
+        <v>0.139</v>
       </c>
       <c r="C32">
-        <v>4.563</v>
+        <v>3.947</v>
       </c>
       <c r="D32">
-        <v>0.752</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.175</v>
+        <v>0.126</v>
       </c>
       <c r="C33">
-        <v>5.453</v>
+        <v>3.406</v>
       </c>
       <c r="D33">
-        <v>0.785</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.204</v>
+        <v>0.156</v>
       </c>
       <c r="C34">
-        <v>7.24</v>
+        <v>4.724</v>
       </c>
       <c r="D34">
-        <v>0.746</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.183</v>
+        <v>0.146</v>
       </c>
       <c r="C35">
-        <v>5.647</v>
+        <v>4.226</v>
       </c>
       <c r="D35">
-        <v>0.748</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.112</v>
+        <v>0.079</v>
       </c>
       <c r="C36">
-        <v>2.598</v>
+        <v>1.927</v>
       </c>
       <c r="D36">
-        <v>0.751</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.18</v>
+        <v>0.135</v>
       </c>
       <c r="C37">
-        <v>5.379</v>
+        <v>3.675</v>
       </c>
       <c r="D37">
-        <v>0.742</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.16</v>
+        <v>0.111</v>
       </c>
       <c r="C38">
-        <v>4.342</v>
+        <v>2.771</v>
       </c>
       <c r="D38">
-        <v>0.737</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.149</v>
+        <v>0.117</v>
       </c>
       <c r="C39">
-        <v>3.828</v>
+        <v>3.045</v>
       </c>
       <c r="D39">
-        <v>0.74</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.158</v>
+        <v>0.118</v>
       </c>
       <c r="C40">
-        <v>4.289</v>
+        <v>3.107</v>
       </c>
       <c r="D40">
-        <v>0.748</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.166</v>
+        <v>0.136</v>
       </c>
       <c r="C41">
-        <v>4.782</v>
+        <v>3.768</v>
       </c>
       <c r="D41">
-        <v>0.759</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.164</v>
+        <v>0.124</v>
       </c>
       <c r="C42">
-        <v>4.687</v>
+        <v>3.328</v>
       </c>
       <c r="D42">
-        <v>0.761</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.126</v>
+        <v>0.094</v>
       </c>
       <c r="C43">
-        <v>3.156</v>
+        <v>2.39</v>
       </c>
       <c r="D43">
-        <v>0.774</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.149</v>
+        <v>0.102</v>
       </c>
       <c r="C44">
-        <v>4.006</v>
+        <v>2.608</v>
       </c>
       <c r="D44">
-        <v>0.761</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.145</v>
+        <v>0.1</v>
       </c>
       <c r="C45">
-        <v>3.877</v>
+        <v>2.504</v>
       </c>
       <c r="D45">
-        <v>0.771</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.169</v>
+        <v>0.11</v>
       </c>
       <c r="C46">
-        <v>5.038</v>
+        <v>2.811</v>
       </c>
       <c r="D46">
-        <v>0.773</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.191</v>
+        <v>0.165</v>
       </c>
       <c r="C47">
-        <v>6.324</v>
+        <v>5.365</v>
       </c>
       <c r="D47">
-        <v>0.764</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.155</v>
+        <v>0.129</v>
       </c>
       <c r="C48">
-        <v>4.102</v>
+        <v>3.498</v>
       </c>
       <c r="D48">
-        <v>0.74</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.12</v>
+        <v>0.088</v>
       </c>
       <c r="C49">
-        <v>2.935</v>
+        <v>2.199</v>
       </c>
       <c r="D49">
-        <v>0.773</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.228</v>
+        <v>0.166</v>
       </c>
       <c r="C50">
-        <v>9.588</v>
+        <v>5.417</v>
       </c>
       <c r="D50">
-        <v>0.772</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.172</v>
+        <v>0.129</v>
       </c>
       <c r="C51">
-        <v>4.937</v>
+        <v>3.407</v>
       </c>
       <c r="D51">
-        <v>0.739</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.128</v>
+        <v>0.088</v>
       </c>
       <c r="C52">
-        <v>3.297</v>
+        <v>2.09</v>
       </c>
       <c r="D52">
-        <v>0.786</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -1315,13 +1315,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.067</v>
+        <v>0.007</v>
       </c>
       <c r="C2">
-        <v>1.566</v>
+        <v>0.843</v>
       </c>
       <c r="D2">
-        <v>0.744</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.144</v>
+        <v>0.065</v>
       </c>
       <c r="C3">
-        <v>4.322</v>
+        <v>1.742</v>
       </c>
       <c r="D3">
-        <v>0.868</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.071</v>
+        <v>0.015</v>
       </c>
       <c r="C4">
-        <v>1.716</v>
+        <v>0.951</v>
       </c>
       <c r="D4">
-        <v>0.777</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.105</v>
+        <v>0.062</v>
       </c>
       <c r="C5">
-        <v>2.454</v>
+        <v>1.618</v>
       </c>
       <c r="D5">
-        <v>0.768</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.111</v>
+        <v>0.054</v>
       </c>
       <c r="C6">
-        <v>2.666</v>
+        <v>1.519</v>
       </c>
       <c r="D6">
-        <v>0.776</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.068</v>
+        <v>0.016</v>
       </c>
       <c r="C7">
-        <v>1.598</v>
+        <v>0.943</v>
       </c>
       <c r="D7">
-        <v>0.751</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.095</v>
+        <v>0.035</v>
       </c>
       <c r="C8">
-        <v>2.148</v>
+        <v>1.16</v>
       </c>
       <c r="D8">
-        <v>0.745</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.124</v>
+        <v>0.068</v>
       </c>
       <c r="C9">
-        <v>3.118</v>
+        <v>1.735</v>
       </c>
       <c r="D9">
-        <v>0.791</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.082</v>
+        <v>0.048</v>
       </c>
       <c r="C10">
-        <v>1.802</v>
+        <v>1.339</v>
       </c>
       <c r="D10">
-        <v>0.723</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.042</v>
+        <v>-0.004</v>
       </c>
       <c r="C11">
-        <v>1.207</v>
+        <v>0.765</v>
       </c>
       <c r="D11">
-        <v>0.754</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.091</v>
+        <v>0.035</v>
       </c>
       <c r="C12">
-        <v>2.038</v>
+        <v>1.165</v>
       </c>
       <c r="D12">
-        <v>0.747</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.103</v>
+        <v>0.047</v>
       </c>
       <c r="C13">
-        <v>2.398</v>
+        <v>1.382</v>
       </c>
       <c r="D13">
-        <v>0.767</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.106</v>
+        <v>0.037</v>
       </c>
       <c r="C14">
-        <v>2.486</v>
+        <v>1.231</v>
       </c>
       <c r="D14">
-        <v>0.769</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.059</v>
+        <v>0.028</v>
       </c>
       <c r="C15">
-        <v>1.395</v>
+        <v>1.051</v>
       </c>
       <c r="D15">
-        <v>0.725</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.072</v>
+        <v>0.028</v>
       </c>
       <c r="C16">
-        <v>1.61</v>
+        <v>1.054</v>
       </c>
       <c r="D16">
-        <v>0.728</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.104</v>
+        <v>0.049</v>
       </c>
       <c r="C17">
-        <v>2.398</v>
+        <v>1.368</v>
       </c>
       <c r="D17">
-        <v>0.762</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.087</v>
+        <v>0.036</v>
       </c>
       <c r="C18">
-        <v>1.97</v>
+        <v>1.168</v>
       </c>
       <c r="D18">
-        <v>0.75</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.096</v>
+        <v>0.047</v>
       </c>
       <c r="C19">
-        <v>2.164</v>
+        <v>1.339</v>
       </c>
       <c r="D19">
-        <v>0.75</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.093</v>
+        <v>0.015</v>
       </c>
       <c r="C20">
-        <v>2.205</v>
+        <v>0.924</v>
       </c>
       <c r="D20">
-        <v>0.785</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.11</v>
+        <v>0.049</v>
       </c>
       <c r="C21">
-        <v>2.552</v>
+        <v>1.369</v>
       </c>
       <c r="D21">
-        <v>0.759</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.094</v>
+        <v>0.039</v>
       </c>
       <c r="C22">
-        <v>2.09</v>
+        <v>1.242</v>
       </c>
       <c r="D22">
-        <v>0.741</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.102</v>
+        <v>0.067</v>
       </c>
       <c r="C23">
-        <v>2.417</v>
+        <v>1.742</v>
       </c>
       <c r="D23">
-        <v>0.776</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.086</v>
+        <v>0.037</v>
       </c>
       <c r="C24">
-        <v>1.94</v>
+        <v>1.211</v>
       </c>
       <c r="D24">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.099</v>
+        <v>0.038</v>
       </c>
       <c r="C25">
-        <v>2.264</v>
+        <v>1.2</v>
       </c>
       <c r="D25">
-        <v>0.758</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.085</v>
+        <v>0.034</v>
       </c>
       <c r="C26">
-        <v>1.96</v>
+        <v>1.177</v>
       </c>
       <c r="D26">
-        <v>0.764</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.087</v>
+        <v>0.04</v>
       </c>
       <c r="C27">
-        <v>1.961</v>
+        <v>1.255</v>
       </c>
       <c r="D27">
-        <v>0.748</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.07</v>
+        <v>0.022</v>
       </c>
       <c r="C28">
-        <v>1.628</v>
+        <v>1.017</v>
       </c>
       <c r="D28">
-        <v>0.751</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.098</v>
+        <v>0.038</v>
       </c>
       <c r="C29">
-        <v>2.227</v>
+        <v>1.216</v>
       </c>
       <c r="D29">
-        <v>0.757</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.035</v>
+        <v>-0.021</v>
       </c>
       <c r="C30">
-        <v>1.12</v>
+        <v>0.623</v>
       </c>
       <c r="D30">
-        <v>0.756</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.074</v>
+        <v>0.025</v>
       </c>
       <c r="C31">
-        <v>1.773</v>
+        <v>1.07</v>
       </c>
       <c r="D31">
-        <v>0.78</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.119</v>
+        <v>0.068</v>
       </c>
       <c r="C32">
-        <v>2.841</v>
+        <v>1.743</v>
       </c>
       <c r="D32">
-        <v>0.762</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.113</v>
+        <v>0.045</v>
       </c>
       <c r="C33">
-        <v>2.761</v>
+        <v>1.329</v>
       </c>
       <c r="D33">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.102</v>
+        <v>0.037</v>
       </c>
       <c r="C34">
-        <v>2.325</v>
+        <v>1.194</v>
       </c>
       <c r="D34">
-        <v>0.746</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.099</v>
+        <v>0.053</v>
       </c>
       <c r="C35">
-        <v>2.22</v>
+        <v>1.446</v>
       </c>
       <c r="D35">
-        <v>0.744</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.066</v>
+        <v>0.003</v>
       </c>
       <c r="C36">
-        <v>1.563</v>
+        <v>0.795</v>
       </c>
       <c r="D36">
-        <v>0.752</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.106</v>
+        <v>0.038</v>
       </c>
       <c r="C37">
-        <v>2.376</v>
+        <v>1.207</v>
       </c>
       <c r="D37">
-        <v>0.74</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.077</v>
+        <v>0.017</v>
       </c>
       <c r="C38">
-        <v>1.743</v>
+        <v>0.927</v>
       </c>
       <c r="D38">
-        <v>0.742</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.084</v>
+        <v>0.047</v>
       </c>
       <c r="C39">
-        <v>1.868</v>
+        <v>1.354</v>
       </c>
       <c r="D39">
-        <v>0.74</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.086</v>
+        <v>0.034</v>
       </c>
       <c r="C40">
-        <v>1.923</v>
+        <v>1.168</v>
       </c>
       <c r="D40">
-        <v>0.743</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.117</v>
+        <v>0.051</v>
       </c>
       <c r="C41">
-        <v>2.838</v>
+        <v>1.411</v>
       </c>
       <c r="D41">
-        <v>0.775</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.094</v>
+        <v>0.049</v>
       </c>
       <c r="C42">
-        <v>2.169</v>
+        <v>1.387</v>
       </c>
       <c r="D42">
-        <v>0.765</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.068</v>
+        <v>0.007</v>
       </c>
       <c r="C43">
-        <v>1.677</v>
+        <v>0.86</v>
       </c>
       <c r="D43">
-        <v>0.786</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.076</v>
+        <v>0.013</v>
       </c>
       <c r="C44">
-        <v>1.814</v>
+        <v>0.923</v>
       </c>
       <c r="D44">
-        <v>0.777</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.073</v>
+        <v>0.022</v>
       </c>
       <c r="C45">
-        <v>1.733</v>
+        <v>1.007</v>
       </c>
       <c r="D45">
-        <v>0.769</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.089</v>
+        <v>0.02</v>
       </c>
       <c r="C46">
-        <v>2.061</v>
+        <v>1.001</v>
       </c>
       <c r="D46">
-        <v>0.768</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.103</v>
+        <v>0.075</v>
       </c>
       <c r="C47">
-        <v>2.378</v>
+        <v>1.88</v>
       </c>
       <c r="D47">
-        <v>0.761</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.087</v>
+        <v>0.048</v>
       </c>
       <c r="C48">
-        <v>1.953</v>
+        <v>1.371</v>
       </c>
       <c r="D48">
-        <v>0.747</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.062</v>
+        <v>0.017</v>
       </c>
       <c r="C49">
-        <v>1.547</v>
+        <v>0.962</v>
       </c>
       <c r="D49">
-        <v>0.776</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.123</v>
+        <v>0.068</v>
       </c>
       <c r="C50">
-        <v>2.997</v>
+        <v>1.739</v>
       </c>
       <c r="D50">
-        <v>0.77</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.08</v>
+        <v>0.023</v>
       </c>
       <c r="C51">
-        <v>1.768</v>
+        <v>0.996</v>
       </c>
       <c r="D51">
-        <v>0.731</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.052</v>
+        <v>-0.009</v>
       </c>
       <c r="C52">
-        <v>1.404</v>
+        <v>0.661</v>
       </c>
       <c r="D52">
-        <v>0.784</v>
+        <v>0.734</v>
       </c>
     </row>
   </sheetData>
@@ -2059,16 +2059,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.088</v>
+        <v>-0.146</v>
       </c>
       <c r="C2">
-        <v>0.209</v>
+        <v>0.109</v>
       </c>
       <c r="D2">
-        <v>10809.44</v>
+        <v>16029.99</v>
       </c>
       <c r="E2">
-        <v>0.162</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2076,16 +2076,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.037</v>
+        <v>-0.127</v>
       </c>
       <c r="C3">
-        <v>0.428</v>
+        <v>0.137</v>
       </c>
       <c r="D3">
-        <v>12511.96</v>
+        <v>19569.38</v>
       </c>
       <c r="E3">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2093,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.04</v>
+        <v>-0.115</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0.165</v>
       </c>
       <c r="D4">
-        <v>8614.89</v>
+        <v>15341.06</v>
       </c>
       <c r="E4">
-        <v>0.123</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2110,16 +2110,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.049</v>
+        <v>-0.054</v>
       </c>
       <c r="C5">
-        <v>0.337</v>
+        <v>0.35</v>
       </c>
       <c r="D5">
-        <v>10337.27</v>
+        <v>12005.46</v>
       </c>
       <c r="E5">
-        <v>0.161</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2127,16 +2127,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.022</v>
+        <v>-0.044</v>
       </c>
       <c r="C6">
-        <v>0.468</v>
+        <v>0.406</v>
       </c>
       <c r="D6">
-        <v>10231.7</v>
+        <v>12078.08</v>
       </c>
       <c r="E6">
-        <v>0.151</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2144,16 +2144,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.061</v>
+        <v>-0.104</v>
       </c>
       <c r="C7">
-        <v>0.302</v>
+        <v>0.19</v>
       </c>
       <c r="D7">
-        <v>9189.39</v>
+        <v>12659.39</v>
       </c>
       <c r="E7">
-        <v>0.138</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2161,16 +2161,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.05</v>
+        <v>-0.104</v>
       </c>
       <c r="C8">
-        <v>0.315</v>
+        <v>0.177</v>
       </c>
       <c r="D8">
-        <v>11383.53</v>
+        <v>16168.43</v>
       </c>
       <c r="E8">
-        <v>0.165</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2178,16 +2178,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.064</v>
+        <v>-0.101</v>
       </c>
       <c r="C9">
-        <v>0.278</v>
+        <v>0.184</v>
       </c>
       <c r="D9">
-        <v>12588.34</v>
+        <v>17514.74</v>
       </c>
       <c r="E9">
-        <v>0.198</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2195,16 +2195,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.14</v>
+        <v>-0.166</v>
       </c>
       <c r="C10">
-        <v>0.097</v>
+        <v>0.075</v>
       </c>
       <c r="D10">
-        <v>14970.77</v>
+        <v>21626.75</v>
       </c>
       <c r="E10">
-        <v>0.218</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2212,16 +2212,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.042</v>
+        <v>-0.098</v>
       </c>
       <c r="C11">
-        <v>0.397</v>
+        <v>0.213</v>
       </c>
       <c r="D11">
-        <v>7180.83</v>
+        <v>13014.74</v>
       </c>
       <c r="E11">
-        <v>0.099</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2229,16 +2229,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.079</v>
+        <v>-0.134</v>
       </c>
       <c r="C12">
-        <v>0.229</v>
+        <v>0.124</v>
       </c>
       <c r="D12">
-        <v>10855.86</v>
+        <v>16559.47</v>
       </c>
       <c r="E12">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2246,16 +2246,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.093</v>
+        <v>-0.113</v>
       </c>
       <c r="C13">
-        <v>0.192</v>
+        <v>0.164</v>
       </c>
       <c r="D13">
-        <v>12549.45</v>
+        <v>16948.33</v>
       </c>
       <c r="E13">
-        <v>0.197</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2263,16 +2263,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.097</v>
+        <v>-0.133</v>
       </c>
       <c r="C14">
-        <v>0.182</v>
+        <v>0.128</v>
       </c>
       <c r="D14">
-        <v>13199.67</v>
+        <v>17919.23</v>
       </c>
       <c r="E14">
-        <v>0.206</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2280,13 +2280,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.072</v>
+        <v>-0.103</v>
       </c>
       <c r="C15">
-        <v>0.253</v>
+        <v>0.18</v>
       </c>
       <c r="D15">
-        <v>9113.31</v>
+        <v>14107.01</v>
       </c>
       <c r="E15">
         <v>0.138</v>
@@ -2297,16 +2297,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.11</v>
+        <v>-0.128</v>
       </c>
       <c r="C16">
-        <v>0.155</v>
+        <v>0.134</v>
       </c>
       <c r="D16">
-        <v>10932.19</v>
+        <v>15186.14</v>
       </c>
       <c r="E16">
-        <v>0.18</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2314,16 +2314,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.064</v>
+        <v>-0.111</v>
       </c>
       <c r="C17">
-        <v>0.28</v>
+        <v>0.167</v>
       </c>
       <c r="D17">
-        <v>10096.15</v>
+        <v>14375.88</v>
       </c>
       <c r="E17">
-        <v>0.164</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2331,13 +2331,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>-0.032</v>
+        <v>-0.086</v>
       </c>
       <c r="C18">
-        <v>0.422</v>
+        <v>0.229</v>
       </c>
       <c r="D18">
-        <v>8472.1</v>
+        <v>13092.48</v>
       </c>
       <c r="E18">
         <v>0.128</v>
@@ -2348,16 +2348,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.096</v>
+        <v>-0.136</v>
       </c>
       <c r="C19">
-        <v>0.182</v>
+        <v>0.121</v>
       </c>
       <c r="D19">
-        <v>11770.63</v>
+        <v>16806.37</v>
       </c>
       <c r="E19">
-        <v>0.189</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2365,16 +2365,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.035</v>
+        <v>-0.154</v>
       </c>
       <c r="C20">
-        <v>0.423</v>
+        <v>0.096</v>
       </c>
       <c r="D20">
-        <v>9060.87</v>
+        <v>18298.77</v>
       </c>
       <c r="E20">
-        <v>0.137</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2382,16 +2382,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.064</v>
+        <v>-0.106</v>
       </c>
       <c r="C21">
-        <v>0.277</v>
+        <v>0.176</v>
       </c>
       <c r="D21">
-        <v>10755.8</v>
+        <v>15149.59</v>
       </c>
       <c r="E21">
-        <v>0.174</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2399,16 +2399,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>-0.055</v>
+        <v>-0.121</v>
       </c>
       <c r="C22">
-        <v>0.306</v>
+        <v>0.149</v>
       </c>
       <c r="D22">
-        <v>9566.4</v>
+        <v>16391.13</v>
       </c>
       <c r="E22">
-        <v>0.154</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2416,16 +2416,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>-0.078</v>
+        <v>-0.073</v>
       </c>
       <c r="C23">
-        <v>0.229</v>
+        <v>0.265</v>
       </c>
       <c r="D23">
-        <v>13130.68</v>
+        <v>15387.85</v>
       </c>
       <c r="E23">
-        <v>0.19</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2433,16 +2433,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.044</v>
+        <v>-0.112</v>
       </c>
       <c r="C24">
-        <v>0.368</v>
+        <v>0.165</v>
       </c>
       <c r="D24">
-        <v>8449.43</v>
+        <v>15671.49</v>
       </c>
       <c r="E24">
-        <v>0.134</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2450,16 +2450,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.029</v>
+        <v>-0.119</v>
       </c>
       <c r="C25">
-        <v>0.431</v>
+        <v>0.151</v>
       </c>
       <c r="D25">
-        <v>8653.59</v>
+        <v>15392.64</v>
       </c>
       <c r="E25">
-        <v>0.138</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2467,16 +2467,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.061</v>
+        <v>-0.094</v>
       </c>
       <c r="C26">
-        <v>0.298</v>
+        <v>0.214</v>
       </c>
       <c r="D26">
-        <v>9867.11</v>
+        <v>14495.89</v>
       </c>
       <c r="E26">
-        <v>0.152</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2484,16 +2484,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>-0.057</v>
+        <v>-0.081</v>
       </c>
       <c r="C27">
-        <v>0.301</v>
+        <v>0.249</v>
       </c>
       <c r="D27">
-        <v>9762.48</v>
+        <v>13003.92</v>
       </c>
       <c r="E27">
-        <v>0.151</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2501,16 +2501,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.048</v>
+        <v>-0.098</v>
       </c>
       <c r="C28">
-        <v>0.361</v>
+        <v>0.211</v>
       </c>
       <c r="D28">
-        <v>7472.17</v>
+        <v>11726.48</v>
       </c>
       <c r="E28">
-        <v>0.118</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2518,16 +2518,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.065</v>
+        <v>-0.133</v>
       </c>
       <c r="C29">
-        <v>0.275</v>
+        <v>0.126</v>
       </c>
       <c r="D29">
-        <v>10072.29</v>
+        <v>16608.23</v>
       </c>
       <c r="E29">
-        <v>0.167</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2535,16 +2535,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.036</v>
+        <v>-0.099</v>
       </c>
       <c r="C30">
-        <v>0.432</v>
+        <v>0.214</v>
       </c>
       <c r="D30">
-        <v>6703.67</v>
+        <v>10948.88</v>
       </c>
       <c r="E30">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2552,16 +2552,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.02</v>
+        <v>-0.091</v>
       </c>
       <c r="C31">
-        <v>0.53</v>
+        <v>0.228</v>
       </c>
       <c r="D31">
-        <v>6812.9</v>
+        <v>12530.49</v>
       </c>
       <c r="E31">
-        <v>0.103</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2569,16 +2569,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.003</v>
+        <v>-0.08</v>
       </c>
       <c r="C32">
-        <v>0.588</v>
+        <v>0.241</v>
       </c>
       <c r="D32">
-        <v>8540.18</v>
+        <v>15669.04</v>
       </c>
       <c r="E32">
-        <v>0.134</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2586,16 +2586,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.034</v>
+        <v>-0.104</v>
       </c>
       <c r="C33">
-        <v>0.423</v>
+        <v>0.186</v>
       </c>
       <c r="D33">
-        <v>9756.57</v>
+        <v>14780.54</v>
       </c>
       <c r="E33">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2603,16 +2603,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.06</v>
+        <v>-0.11</v>
       </c>
       <c r="C34">
-        <v>0.271</v>
+        <v>0.16</v>
       </c>
       <c r="D34">
-        <v>12748.1</v>
+        <v>17750.01</v>
       </c>
       <c r="E34">
-        <v>0.184</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2620,16 +2620,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.088</v>
+        <v>-0.103</v>
       </c>
       <c r="C35">
-        <v>0.201</v>
+        <v>0.181</v>
       </c>
       <c r="D35">
-        <v>11672.86</v>
+        <v>15405.07</v>
       </c>
       <c r="E35">
-        <v>0.186</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2637,16 +2637,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.026</v>
+        <v>-0.118</v>
       </c>
       <c r="C36">
-        <v>0.479</v>
+        <v>0.162</v>
       </c>
       <c r="D36">
-        <v>6244.77</v>
+        <v>11716.0</v>
       </c>
       <c r="E36">
-        <v>0.096</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2654,16 +2654,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>-0.059</v>
+        <v>-0.129</v>
       </c>
       <c r="C37">
-        <v>0.288</v>
+        <v>0.132</v>
       </c>
       <c r="D37">
-        <v>10028.47</v>
+        <v>15704.6</v>
       </c>
       <c r="E37">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2671,16 +2671,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.062</v>
+        <v>-0.123</v>
       </c>
       <c r="C38">
-        <v>0.282</v>
+        <v>0.142</v>
       </c>
       <c r="D38">
-        <v>9938.4</v>
+        <v>14800.2</v>
       </c>
       <c r="E38">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2688,16 +2688,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.071</v>
+        <v>-0.063</v>
       </c>
       <c r="C39">
-        <v>0.252</v>
+        <v>0.316</v>
       </c>
       <c r="D39">
-        <v>9904.95</v>
+        <v>11040.0</v>
       </c>
       <c r="E39">
-        <v>0.161</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2705,16 +2705,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.068</v>
+        <v>-0.108</v>
       </c>
       <c r="C40">
-        <v>0.265</v>
+        <v>0.177</v>
       </c>
       <c r="D40">
-        <v>10043.08</v>
+        <v>15067.83</v>
       </c>
       <c r="E40">
-        <v>0.159</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2722,16 +2722,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.026</v>
+        <v>-0.113</v>
       </c>
       <c r="C41">
-        <v>0.445</v>
+        <v>0.16</v>
       </c>
       <c r="D41">
-        <v>9950.84</v>
+        <v>16337.49</v>
       </c>
       <c r="E41">
-        <v>0.152</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2739,16 +2739,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>-0.078</v>
+        <v>-0.111</v>
       </c>
       <c r="C42">
-        <v>0.234</v>
+        <v>0.166</v>
       </c>
       <c r="D42">
-        <v>11564.68</v>
+        <v>16538.71</v>
       </c>
       <c r="E42">
-        <v>0.177</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2756,16 +2756,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.005</v>
+        <v>-0.106</v>
       </c>
       <c r="C43">
-        <v>0.645</v>
+        <v>0.19</v>
       </c>
       <c r="D43">
-        <v>5531.17</v>
+        <v>12537.79</v>
       </c>
       <c r="E43">
-        <v>0.079</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2773,16 +2773,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.062</v>
+        <v>-0.116</v>
       </c>
       <c r="C44">
-        <v>0.3</v>
+        <v>0.164</v>
       </c>
       <c r="D44">
-        <v>10289.11</v>
+        <v>14470.02</v>
       </c>
       <c r="E44">
-        <v>0.148</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2790,16 +2790,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>-0.045</v>
+        <v>-0.079</v>
       </c>
       <c r="C45">
-        <v>0.373</v>
+        <v>0.262</v>
       </c>
       <c r="D45">
-        <v>9034.82</v>
+        <v>11614.98</v>
       </c>
       <c r="E45">
-        <v>0.132</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2807,16 +2807,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.064</v>
+        <v>-0.121</v>
       </c>
       <c r="C46">
-        <v>0.282</v>
+        <v>0.153</v>
       </c>
       <c r="D46">
-        <v>10871.26</v>
+        <v>14452.2</v>
       </c>
       <c r="E46">
-        <v>0.166</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2824,16 +2824,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.134</v>
+        <v>-0.111</v>
       </c>
       <c r="C47">
-        <v>0.113</v>
+        <v>0.16</v>
       </c>
       <c r="D47">
-        <v>14686.53</v>
+        <v>18766.85</v>
       </c>
       <c r="E47">
-        <v>0.229</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2841,16 +2841,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.084</v>
+        <v>-0.106</v>
       </c>
       <c r="C48">
-        <v>0.215</v>
+        <v>0.18</v>
       </c>
       <c r="D48">
-        <v>10759.81</v>
+        <v>15252.24</v>
       </c>
       <c r="E48">
-        <v>0.171</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2858,16 +2858,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>-0.048</v>
+        <v>-0.101</v>
       </c>
       <c r="C49">
-        <v>0.369</v>
+        <v>0.199</v>
       </c>
       <c r="D49">
-        <v>8072.53</v>
+        <v>13078.36</v>
       </c>
       <c r="E49">
-        <v>0.119</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2875,16 +2875,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.132</v>
+        <v>-0.148</v>
       </c>
       <c r="C50">
-        <v>0.115</v>
+        <v>0.098</v>
       </c>
       <c r="D50">
-        <v>14925.27</v>
+        <v>21671.83</v>
       </c>
       <c r="E50">
-        <v>0.237</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2892,16 +2892,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>-0.056</v>
+        <v>-0.119</v>
       </c>
       <c r="C51">
-        <v>0.307</v>
+        <v>0.152</v>
       </c>
       <c r="D51">
-        <v>8764.16</v>
+        <v>13624.57</v>
       </c>
       <c r="E51">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2909,16 +2909,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>-0.022</v>
+        <v>-0.099</v>
       </c>
       <c r="C52">
-        <v>0.528</v>
+        <v>0.193</v>
       </c>
       <c r="D52">
-        <v>6914.7</v>
+        <v>11825.19</v>
       </c>
       <c r="E52">
-        <v>0.094</v>
+        <v>0.103</v>
       </c>
     </row>
   </sheetData>
